--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1954243.089947042</v>
+        <v>1912419.308278036</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584663</v>
+        <v>460545.8926584661</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075582</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -703,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>78.2008536957747</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9286490126096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>217.0275780651082</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>190.167558667311</v>
+        <v>240.1685615221494</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="E7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>33.60023339142367</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>30.24678523090114</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>115.5785074418531</v>
       </c>
       <c r="W9" t="n">
-        <v>196.4321170760517</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>169.871848744725</v>
+        <v>126.2656460541969</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,7 +1457,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>104.262613881998</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6088509072821</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>129.2653461765489</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.0311578398781</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50.32622028303845</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>85.50129172214113</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>150.6847227126469</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>122.3078802415591</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>104.5657851232528</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>128.3004358894264</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>46.57608071844631</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.456834824088095</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.8986597023843</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>111.060750249129</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>228.4010902861367</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>347.3669805721893</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>96.26757873844505</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2165,16 +2165,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.9588715784959</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>105.9637990594094</v>
@@ -2216,7 +2216,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>147.6938511001821</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.781652662641354</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>23.12051712137652</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>30.94549136936071</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>18.66629832321886</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17.93784657305854</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>27.02401093552104</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>70.48633311208263</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>19.44425097523755</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>324.7801585504183</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
@@ -2608,22 +2608,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>223.2555102339123</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>17.93784657305899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>45.56224815806257</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>105.9637990594094</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>115.9274873119628</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>268.7418428881281</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>241.5784911624466</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
@@ -2842,25 +2842,25 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>302.1569439836617</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2876,22 +2876,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>91.6867458199809</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>187.5960416112913</v>
       </c>
     </row>
     <row r="31">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>10.41424504411787</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>61.15426918750885</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>242.3819627536648</v>
       </c>
       <c r="D32" t="n">
-        <v>340.8226217173241</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>93.72700595910938</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>35.25035927824667</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>152.8143555761653</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>109.7384251876795</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S35" t="n">
-        <v>99.14237835397452</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>102.8389712821883</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3353,19 +3353,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>37.22402582628324</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>91.68674581998047</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>101.5289465722274</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.781652662641354</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>373.5963166213542</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>33.81938230545342</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>34.31317680226898</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>14.83191020883713</v>
       </c>
       <c r="G39" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>9.384487174102832</v>
       </c>
       <c r="T40" t="n">
-        <v>13.63855752214131</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>200.2764367340749</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>91.5015909001533</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,10 +3821,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>16.91387525328393</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>89.18211739820521</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
@@ -3878,7 +3878,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>32.05059883298339</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>268.975507423183</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>203.8766041230045</v>
+        <v>315.3403249028322</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4058,13 +4058,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>141.4919670529475</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4073,7 +4073,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571426</v>
@@ -4109,10 +4109,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>139.5584262893875</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>191.2591398496931</v>
+        <v>86.58819153171365</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F2" t="n">
         <v>46.80844297864461</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>132.7447050367114</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>132.7447050367114</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>53.75394372784808</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>53.75394372784808</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>602.5722756181267</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C3" t="n">
-        <v>428.1192463369997</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>279.1848366757484</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>279.1848366757484</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,10 +4418,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>830.7958938817376</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>602.5722756181267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>602.5722756181267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>602.5722756181267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>602.5722756181267</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>602.5722756181267</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.0282188019862</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>266.0282188019862</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>266.0282188019862</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>266.0282188019862</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>486.3105406908639</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>486.3105406908639</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>278.55024192591</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4837,19 +4837,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="V8" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="W8" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="X8" t="n">
         <v>559.1338160830064</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Y8" t="n">
         <v>315.6850394389064</v>
-      </c>
-      <c r="W8" t="n">
-        <v>72.23626279480629</v>
-      </c>
-      <c r="X8" t="n">
-        <v>41.68395448076474</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>425.5489231905453</v>
+        <v>847.3111883976533</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1041.491250111708</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C11" t="n">
-        <v>1041.491250111708</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D11" t="n">
-        <v>1041.491250111708</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E11" t="n">
-        <v>1041.491250111708</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F11" t="n">
-        <v>630.5053453221001</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>2098.788550986472</v>
+        <v>2217.208765461815</v>
       </c>
       <c r="V11" t="n">
-        <v>1767.725663642902</v>
+        <v>1886.145878118245</v>
       </c>
       <c r="W11" t="n">
-        <v>1414.957008372787</v>
+        <v>1533.37722284813</v>
       </c>
       <c r="X11" t="n">
-        <v>1041.491250111708</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="Y11" t="n">
-        <v>1041.491250111708</v>
+        <v>1159.911464587051</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>850.8043343374655</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C12" t="n">
-        <v>676.3513050563386</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D12" t="n">
-        <v>527.4168953950873</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E12" t="n">
-        <v>368.1794403896317</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F12" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050502</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007834</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.568096156131</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2183.528760559709</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>1983.986062613739</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>1755.805598267897</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1520.653490036154</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W12" t="n">
-        <v>1266.416133307952</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1058.56463310242</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y12" t="n">
-        <v>850.8043343374655</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>249.207965794304</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="C13" t="n">
-        <v>249.207965794304</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>249.207965794304</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>249.207965794304</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363101</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T13" t="n">
-        <v>477.1975166923213</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="U13" t="n">
-        <v>477.1975166923213</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="V13" t="n">
-        <v>477.1975166923213</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="W13" t="n">
-        <v>477.1975166923213</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="X13" t="n">
-        <v>249.207965794304</v>
+        <v>163.1743251005163</v>
       </c>
       <c r="Y13" t="n">
-        <v>249.207965794304</v>
+        <v>163.1743251005163</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1369.761180647701</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="C14" t="n">
-        <v>1369.761180647701</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="D14" t="n">
-        <v>1369.761180647701</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E14" t="n">
-        <v>1369.761180647701</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F14" t="n">
-        <v>958.7752758580932</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5296,34 +5296,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q14" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2219.541711048782</v>
       </c>
       <c r="U14" t="n">
-        <v>2090.963399967083</v>
+        <v>1965.75528893365</v>
       </c>
       <c r="V14" t="n">
-        <v>1759.900512623512</v>
+        <v>1965.75528893365</v>
       </c>
       <c r="W14" t="n">
-        <v>1759.900512623512</v>
+        <v>1965.75528893365</v>
       </c>
       <c r="X14" t="n">
-        <v>1759.900512623512</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="Y14" t="n">
-        <v>1369.761180647701</v>
+        <v>1592.28953067257</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>735.3105217676085</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C15" t="n">
-        <v>560.8574924864815</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D15" t="n">
-        <v>411.9230828252303</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E15" t="n">
-        <v>252.6856278197748</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F15" t="n">
-        <v>252.6856278197748</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
@@ -5363,19 +5363,19 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161154</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832898</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671463</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5387,22 +5387,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2036.70758706395</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>1808.527122718107</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1573.375014486365</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1319.137657758163</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1111.28615755263</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y15" t="n">
-        <v>903.5258587876765</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>193.7849439395547</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="C16" t="n">
-        <v>193.7849439395547</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="D16" t="n">
-        <v>193.7849439395547</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E16" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
         <v>46.89499644164432</v>
@@ -5457,31 +5457,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>414.5775230830848</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X16" t="n">
-        <v>414.5775230830848</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.7849439395547</v>
+        <v>194.8080900240374</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1286.788427385932</v>
+        <v>1688.082170195221</v>
       </c>
       <c r="C17" t="n">
-        <v>917.8259104455201</v>
+        <v>1319.119653254809</v>
       </c>
       <c r="D17" t="n">
-        <v>917.8259104455201</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="E17" t="n">
-        <v>788.2295105572106</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F17" t="n">
-        <v>377.243605767603</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G17" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5521,46 +5521,46 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244547</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N17" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O17" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q17" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>2050.393517622823</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U17" t="n">
-        <v>2050.393517622823</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V17" t="n">
-        <v>2050.393517622823</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="W17" t="n">
-        <v>2050.393517622823</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="X17" t="n">
-        <v>1676.927759361743</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="Y17" t="n">
-        <v>1286.788427385932</v>
+        <v>1793.704175370224</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>676.0544483625931</v>
+        <v>821.6754629010848</v>
       </c>
       <c r="C18" t="n">
-        <v>501.6014190814661</v>
+        <v>647.2224336199578</v>
       </c>
       <c r="D18" t="n">
-        <v>352.6670094202149</v>
+        <v>498.2880239587065</v>
       </c>
       <c r="E18" t="n">
-        <v>193.4295544147593</v>
+        <v>339.050568953251</v>
       </c>
       <c r="F18" t="n">
-        <v>46.89499644164432</v>
+        <v>339.050568953251</v>
       </c>
       <c r="G18" t="n">
-        <v>46.89499644164432</v>
+        <v>200.975683085943</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>93.94154262189312</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050502</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
         <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007834</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
         <v>1188.843414867958</v>
@@ -5618,28 +5618,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2338.227766704349</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2176.994211604904</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>1977.451513658935</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U18" t="n">
-        <v>1749.271049313092</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V18" t="n">
-        <v>1514.118941081349</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W18" t="n">
-        <v>1259.881584353148</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X18" t="n">
-        <v>1052.030084147615</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y18" t="n">
-        <v>844.2697853826612</v>
+        <v>989.8907999211528</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>159.0775724508656</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>159.0775724508656</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>159.0775724508656</v>
       </c>
       <c r="E19" t="n">
         <v>46.89499644164432</v>
@@ -5676,49 +5676,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L19" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q19" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>566.7843137019199</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>277.603168447843</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>159.0775724508656</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1185.109116778414</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C20" t="n">
-        <v>816.1465998380024</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="D20" t="n">
-        <v>457.8809012312519</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="E20" t="n">
-        <v>457.8809012312519</v>
+        <v>808.7566391829582</v>
       </c>
       <c r="F20" t="n">
-        <v>46.89499644164432</v>
+        <v>397.7707343933507</v>
       </c>
       <c r="G20" t="n">
         <v>46.89499644164432</v>
@@ -5752,10 +5752,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
         <v>762.5916738244548</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.198404760799</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V20" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W20" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X20" t="n">
-        <v>1185.109116778414</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y20" t="n">
-        <v>1185.109116778414</v>
+        <v>1581.144731845324</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>680.7073555380667</v>
+        <v>850.3132293009576</v>
       </c>
       <c r="C21" t="n">
-        <v>506.2543262569397</v>
+        <v>675.8602000198306</v>
       </c>
       <c r="D21" t="n">
-        <v>506.2543262569397</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G21" t="n">
         <v>221.6448824165167</v>
@@ -5831,13 +5831,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K21" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L21" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M21" t="n">
         <v>974.44769738329</v>
@@ -5864,19 +5864,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673871</v>
+        <v>1688.377722019714</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1434.140365291512</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401369</v>
+        <v>1226.28886508598</v>
       </c>
       <c r="Y21" t="n">
-        <v>848.9226925581347</v>
+        <v>1018.528566321026</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="C22" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="D22" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I22" t="n">
         <v>46.89499644164432</v>
@@ -5931,31 +5931,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q22" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R22" t="n">
-        <v>563.9745635376357</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S22" t="n">
-        <v>563.9745635376357</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T22" t="n">
-        <v>336.0761416957212</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U22" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="V22" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="W22" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="X22" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.89499644164432</v>
+        <v>356.5160938960354</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>754.3641511654837</v>
+        <v>1623.547602762833</v>
       </c>
       <c r="C23" t="n">
-        <v>754.3641511654837</v>
+        <v>1623.547602762833</v>
       </c>
       <c r="D23" t="n">
-        <v>396.0984525587332</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E23" t="n">
-        <v>396.0984525587332</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F23" t="n">
-        <v>396.0984525587332</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G23" t="n">
-        <v>396.0984525587332</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H23" t="n">
-        <v>65.74984323277448</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O23" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P23" t="n">
         <v>2224.886645733486</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.198404760799</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>1867.198404760799</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>1867.198404760799</v>
+        <v>2013.686934738645</v>
       </c>
       <c r="W23" t="n">
-        <v>1514.429749490685</v>
+        <v>2013.686934738645</v>
       </c>
       <c r="X23" t="n">
-        <v>1140.963991229605</v>
+        <v>2013.686934738645</v>
       </c>
       <c r="Y23" t="n">
-        <v>1140.963991229605</v>
+        <v>1623.547602762833</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>772.2290650326996</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C24" t="n">
-        <v>597.7760357515726</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D24" t="n">
-        <v>597.7760357515726</v>
+        <v>420.3827549310374</v>
       </c>
       <c r="E24" t="n">
-        <v>438.5385807461172</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F24" t="n">
-        <v>292.0040227730022</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G24" t="n">
-        <v>153.9291369056942</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6077,7 +6077,7 @@
         <v>705.6153558007834</v>
       </c>
       <c r="M24" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
         <v>1486.172378671464</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.0933127164753</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="C25" t="n">
-        <v>118.0933127164753</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="D25" t="n">
-        <v>118.0933127164753</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H25" t="n">
         <v>46.89499644164432</v>
@@ -6168,31 +6168,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q25" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R25" t="n">
-        <v>566.7843137019199</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="S25" t="n">
-        <v>566.7843137019199</v>
+        <v>433.7699809601456</v>
       </c>
       <c r="T25" t="n">
-        <v>338.8858918600054</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="U25" t="n">
-        <v>338.8858918600054</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="V25" t="n">
-        <v>338.8858918600054</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="W25" t="n">
-        <v>338.8858918600054</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="X25" t="n">
-        <v>338.8858918600054</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="Y25" t="n">
-        <v>118.0933127164753</v>
+        <v>205.8715591182311</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>793.2275301713032</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="C26" t="n">
-        <v>793.2275301713032</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="D26" t="n">
-        <v>465.1667639587595</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E26" t="n">
-        <v>465.1667639587595</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F26" t="n">
         <v>465.1667639587595</v>
@@ -6226,52 +6226,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O26" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q26" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="U26" t="n">
-        <v>1867.1984047608</v>
+        <v>1833.394742014088</v>
       </c>
       <c r="V26" t="n">
-        <v>1536.135517417229</v>
+        <v>1833.394742014088</v>
       </c>
       <c r="W26" t="n">
-        <v>1183.366862147115</v>
+        <v>1833.394742014088</v>
       </c>
       <c r="X26" t="n">
-        <v>1183.366862147115</v>
+        <v>1459.928983753009</v>
       </c>
       <c r="Y26" t="n">
-        <v>793.2275301713032</v>
+        <v>1234.418367355117</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>790.3481019751835</v>
+        <v>682.5765037404599</v>
       </c>
       <c r="C27" t="n">
-        <v>615.8950726940565</v>
+        <v>508.1234744593329</v>
       </c>
       <c r="D27" t="n">
-        <v>597.7760357515726</v>
+        <v>359.1890647980816</v>
       </c>
       <c r="E27" t="n">
-        <v>438.5385807461172</v>
+        <v>199.9516097926261</v>
       </c>
       <c r="F27" t="n">
-        <v>292.0040227730022</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G27" t="n">
         <v>153.9291369056942</v>
@@ -6305,16 +6305,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161161</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832905</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
         <v>1486.172378671464</v>
@@ -6329,28 +6329,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>850.791840760528</v>
       </c>
     </row>
     <row r="28">
@@ -6387,7 +6387,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L28" t="n">
         <v>194.9121237200977</v>
@@ -6408,13 +6408,13 @@
         <v>607.7685734363101</v>
       </c>
       <c r="R28" t="n">
-        <v>453.4106385108906</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S28" t="n">
-        <v>453.4106385108906</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T28" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U28" t="n">
         <v>336.3121664786049</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1209.220715163754</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="C29" t="n">
-        <v>1209.220715163754</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="D29" t="n">
-        <v>850.9550165570038</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="E29" t="n">
-        <v>465.1667639587595</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F29" t="n">
         <v>465.1667639587595</v>
@@ -6463,16 +6463,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L29" t="n">
         <v>762.591673824455</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6481,34 +6481,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991245</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129221</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.198404760799</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U29" t="n">
-        <v>1867.198404760799</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V29" t="n">
-        <v>1561.989370433868</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W29" t="n">
-        <v>1209.220715163754</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X29" t="n">
-        <v>1209.220715163754</v>
+        <v>1896.910518730166</v>
       </c>
       <c r="Y29" t="n">
-        <v>1209.220715163754</v>
+        <v>1506.771186754354</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>839.9448105435223</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>139.5078710072816</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>139.5078710072816</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076323</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161161</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832905</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6572,22 +6572,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673872</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401373</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>1008.16014756359</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>215.8311793695513</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E31" t="n">
         <v>46.89499644164432</v>
@@ -6642,31 +6642,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q31" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R31" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S31" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T31" t="n">
-        <v>566.7843137019199</v>
+        <v>597.2491339978072</v>
       </c>
       <c r="U31" t="n">
-        <v>277.603168447843</v>
+        <v>597.2491339978072</v>
       </c>
       <c r="V31" t="n">
-        <v>277.603168447843</v>
+        <v>597.2491339978072</v>
       </c>
       <c r="W31" t="n">
-        <v>277.603168447843</v>
+        <v>597.2491339978072</v>
       </c>
       <c r="X31" t="n">
-        <v>215.8311793695513</v>
+        <v>597.2491339978072</v>
       </c>
       <c r="Y31" t="n">
-        <v>215.8311793695513</v>
+        <v>376.4565548542771</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>925.4613692073401</v>
+        <v>1506.771186754353</v>
       </c>
       <c r="C32" t="n">
-        <v>556.4988522669285</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D32" t="n">
-        <v>212.2335778049849</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E32" t="n">
-        <v>212.2335778049849</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2335778049849</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6733,19 +6733,19 @@
         <v>2270.376276991245</v>
       </c>
       <c r="U32" t="n">
-        <v>2016.589854876112</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V32" t="n">
-        <v>1685.526967532542</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="W32" t="n">
-        <v>1685.526967532542</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="X32" t="n">
-        <v>1312.061209271462</v>
+        <v>1896.910518730165</v>
       </c>
       <c r="Y32" t="n">
-        <v>1312.061209271462</v>
+        <v>1506.771186754353</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>735.3105217676085</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C33" t="n">
-        <v>560.8574924864815</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D33" t="n">
-        <v>411.9230828252303</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E33" t="n">
-        <v>252.6856278197748</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F33" t="n">
-        <v>252.6856278197748</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6684232076323</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161161</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832905</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6821,10 +6821,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1111.28615755263</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y33" t="n">
-        <v>903.5258587876765</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>232.6180593673605</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>232.6180593673605</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>82.5014199550248</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>82.5014199550248</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>82.5014199550248</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>82.5014199550248</v>
       </c>
       <c r="H34" t="n">
         <v>46.89499644164432</v>
@@ -6879,31 +6879,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q34" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R34" t="n">
-        <v>412.4263787765004</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="S34" t="n">
-        <v>412.4263787765004</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="T34" t="n">
-        <v>301.5794846475312</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="U34" t="n">
-        <v>301.5794846475312</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="V34" t="n">
-        <v>46.89499644164432</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>232.6180593673605</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1542.980280095866</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="C35" t="n">
-        <v>1174.017763155455</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="D35" t="n">
-        <v>1174.017763155455</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="E35" t="n">
-        <v>788.2295105572106</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F35" t="n">
-        <v>377.243605767603</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G35" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6943,16 +6943,16 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O35" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P35" t="n">
         <v>2224.886645733486</v>
@@ -6964,25 +6964,25 @@
         <v>2270.376276991245</v>
       </c>
       <c r="S35" t="n">
-        <v>2170.232460472079</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T35" t="n">
-        <v>2170.232460472079</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U35" t="n">
-        <v>1916.446038356946</v>
+        <v>2166.498528221358</v>
       </c>
       <c r="V35" t="n">
-        <v>1916.446038356946</v>
+        <v>2166.498528221358</v>
       </c>
       <c r="W35" t="n">
-        <v>1916.446038356946</v>
+        <v>2166.498528221358</v>
       </c>
       <c r="X35" t="n">
-        <v>1542.980280095866</v>
+        <v>1793.032769960278</v>
       </c>
       <c r="Y35" t="n">
-        <v>1542.980280095866</v>
+        <v>1402.893437984466</v>
       </c>
     </row>
     <row r="36">
@@ -7001,16 +7001,16 @@
         <v>298.7453260127367</v>
       </c>
       <c r="E36" t="n">
-        <v>261.1452999255819</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F36" t="n">
-        <v>114.6107419524668</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="G36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7025,7 +7025,7 @@
         <v>705.6153558007834</v>
       </c>
       <c r="M36" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
         <v>1486.172378671464</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>149.4494879287427</v>
       </c>
       <c r="H37" t="n">
         <v>46.89499644164432</v>
@@ -7116,31 +7116,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R37" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S37" t="n">
-        <v>563.9745635376357</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T37" t="n">
-        <v>336.0761416957212</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="V37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="W37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="X37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822332</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.857513382056</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164432</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H38" t="n">
         <v>46.89499644164432</v>
@@ -7174,22 +7174,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O38" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P38" t="n">
         <v>2224.886645733486</v>
@@ -7201,25 +7201,25 @@
         <v>2270.376276991245</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129221</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.198404760799</v>
+        <v>2236.215284763514</v>
       </c>
       <c r="U38" t="n">
-        <v>1867.198404760799</v>
+        <v>1982.428862648382</v>
       </c>
       <c r="V38" t="n">
-        <v>1536.135517417229</v>
+        <v>1982.428862648382</v>
       </c>
       <c r="W38" t="n">
-        <v>1183.366862147114</v>
+        <v>1982.428862648382</v>
       </c>
       <c r="X38" t="n">
-        <v>1183.366862147114</v>
+        <v>1982.428862648382</v>
       </c>
       <c r="Y38" t="n">
-        <v>793.2275301713028</v>
+        <v>1592.28953067257</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551149</v>
+        <v>682.5765037404599</v>
       </c>
       <c r="C39" t="n">
-        <v>587.4729904073685</v>
+        <v>508.1234744593329</v>
       </c>
       <c r="D39" t="n">
-        <v>438.5385807461172</v>
+        <v>359.1890647980816</v>
       </c>
       <c r="E39" t="n">
-        <v>438.5385807461172</v>
+        <v>199.9516097926261</v>
       </c>
       <c r="F39" t="n">
-        <v>292.0040227730022</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G39" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
         <v>46.89499644164432</v>
@@ -7253,52 +7253,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007834</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673871</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401369</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.348101975183</v>
+        <v>850.791840760528</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G40" t="n">
         <v>46.89499644164432</v>
@@ -7353,31 +7353,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q40" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R40" t="n">
-        <v>566.7843137019199</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="S40" t="n">
-        <v>350.0884872080406</v>
+        <v>443.9313585370494</v>
       </c>
       <c r="T40" t="n">
-        <v>336.3121664786049</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="U40" t="n">
-        <v>336.3121664786049</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="V40" t="n">
-        <v>336.3121664786049</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="W40" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="X40" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>774.1232119888066</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="C41" t="n">
-        <v>405.1606950483948</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="D41" t="n">
-        <v>46.89499644164432</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7411,13 +7411,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244548</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376118</v>
@@ -7441,22 +7441,22 @@
         <v>2270.376276991245</v>
       </c>
       <c r="T41" t="n">
-        <v>2050.393517622823</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U41" t="n">
-        <v>1848.094086578303</v>
+        <v>2016.589854876112</v>
       </c>
       <c r="V41" t="n">
-        <v>1517.031199234732</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="W41" t="n">
-        <v>1164.262543964618</v>
+        <v>1593.101118138447</v>
       </c>
       <c r="X41" t="n">
-        <v>1164.262543964618</v>
+        <v>1593.101118138447</v>
       </c>
       <c r="Y41" t="n">
-        <v>774.1232119888066</v>
+        <v>1593.101118138447</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404599</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>682.5765037404599</v>
       </c>
       <c r="D42" t="n">
         <v>665.4917812623953</v>
@@ -7490,13 +7490,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M42" t="n">
         <v>974.44769738329</v>
@@ -7517,25 +7517,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2254.666875215342</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>2055.124177269372</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>1826.94371292353</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>850.791840760528</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>385.1358488716802</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C43" t="n">
-        <v>385.1358488716802</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D43" t="n">
-        <v>385.1358488716802</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E43" t="n">
-        <v>385.1358488716802</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>238.2459013737698</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
         <v>46.89499644164432</v>
@@ -7590,31 +7590,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q43" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R43" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S43" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T43" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U43" t="n">
-        <v>566.7843137019199</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="V43" t="n">
-        <v>566.7843137019199</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="W43" t="n">
-        <v>566.7843137019199</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X43" t="n">
-        <v>566.7843137019199</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y43" t="n">
-        <v>566.7843137019199</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>621.7934771426667</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="C44" t="n">
-        <v>252.830960202255</v>
+        <v>751.2088297498201</v>
       </c>
       <c r="D44" t="n">
-        <v>252.830960202255</v>
+        <v>751.2088297498201</v>
       </c>
       <c r="E44" t="n">
-        <v>252.830960202255</v>
+        <v>365.4205771515759</v>
       </c>
       <c r="F44" t="n">
-        <v>252.830960202255</v>
+        <v>365.4205771515759</v>
       </c>
       <c r="G44" t="n">
         <v>46.89499644164432</v>
@@ -7648,7 +7648,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915533</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K44" t="n">
         <v>392.9020949275675</v>
@@ -7660,10 +7660,10 @@
         <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O44" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P44" t="n">
         <v>2224.886645733486</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T44" t="n">
-        <v>2124.767062713794</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U44" t="n">
-        <v>2124.767062713794</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V44" t="n">
-        <v>2124.767062713794</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="W44" t="n">
-        <v>1771.99840744368</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="X44" t="n">
-        <v>1398.5326491826</v>
+        <v>1896.910518730165</v>
       </c>
       <c r="Y44" t="n">
-        <v>1008.393317206788</v>
+        <v>1506.771186754353</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>850.3132293009576</v>
+        <v>680.7073555380667</v>
       </c>
       <c r="C45" t="n">
-        <v>707.3920504595965</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="D45" t="n">
-        <v>558.4576407983452</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E45" t="n">
-        <v>399.2201857928898</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F45" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G45" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
         <v>114.6107419524668</v>
@@ -7727,22 +7727,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007834</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.568096156131</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
         <v>2193.291384540003</v>
@@ -7757,22 +7757,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>1982.104420834408</v>
       </c>
       <c r="U45" t="n">
-        <v>1923.529830251457</v>
+        <v>1753.923956488566</v>
       </c>
       <c r="V45" t="n">
-        <v>1688.377722019714</v>
+        <v>1518.771848256823</v>
       </c>
       <c r="W45" t="n">
-        <v>1434.140365291512</v>
+        <v>1264.534491528621</v>
       </c>
       <c r="X45" t="n">
-        <v>1226.28886508598</v>
+        <v>1056.682991323089</v>
       </c>
       <c r="Y45" t="n">
-        <v>1018.528566321026</v>
+        <v>848.9226925581347</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>193.7849439395547</v>
+        <v>365.947818781887</v>
       </c>
       <c r="C46" t="n">
-        <v>193.7849439395547</v>
+        <v>197.01163585398</v>
       </c>
       <c r="D46" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
         <v>46.89499644164432</v>
@@ -7830,28 +7830,28 @@
         <v>607.7685734363101</v>
       </c>
       <c r="R46" t="n">
-        <v>607.7685734363101</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363101</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="T46" t="n">
-        <v>607.7685734363101</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="U46" t="n">
-        <v>414.5775230830848</v>
+        <v>365.947818781887</v>
       </c>
       <c r="V46" t="n">
-        <v>414.5775230830848</v>
+        <v>365.947818781887</v>
       </c>
       <c r="W46" t="n">
-        <v>414.5775230830848</v>
+        <v>365.947818781887</v>
       </c>
       <c r="X46" t="n">
-        <v>414.5775230830848</v>
+        <v>365.947818781887</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.7849439395547</v>
+        <v>365.947818781887</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>402.132053707116</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>177.3009884841357</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>154.2790145108651</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>330.2893092338458</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>309.749325445695</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>249.1437329574063</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>214.8846069991547</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K30" t="n">
-        <v>47.90390621998529</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>476.374956788959</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K33" t="n">
-        <v>47.90390621998529</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>476.374956788959</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>249.1437329574063</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488641</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>249.1437329574063</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,13 +11387,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392486</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>101.9014378473434</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -23314,7 +23314,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>81.37670914925616</v>
+        <v>124.9829118397843</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01236864116810921</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>52.13028572634454</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -23436,10 +23436,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704632</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>96.35409144694646</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.057892002065842</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>167.456711491699</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>112.0459792443685</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.4465608509556</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>63.84414551629362</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
         <v>225.6194376234954</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>96.27677311053571</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>278.1680565402277</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>253.6299341828354</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -23791,16 +23791,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>20.46250733726795</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.38246657340333</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>35.37321239744014</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23913,7 +23913,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
@@ -23943,13 +23943,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>23.73655303769129</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>66.72206926975468</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>273.463521940024</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,16 +24053,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0.4861939861428937</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>57.98884467712224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620182</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R22" t="n">
-        <v>150.032702913524</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
         <v>214.5288682289405</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>263.1688166801596</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>323.7375502513223</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>145.0188972264883</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>148.5953370768088</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>120.4210546291177</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>75.94762953448654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>139.0783256288916</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>195.084617253703</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,13 +24448,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>29.90288307026469</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>162.9824284221413</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>129.5072189915797</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>99.50696423532131</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>109.6919503115326</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>17.54749091340801</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>140.3518789098152</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>25.59531448647323</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>14.27705323942853</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>18.08665416601309</v>
       </c>
     </row>
     <row r="31">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24891,10 +24891,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>215.2051925793775</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>164.5553862015283</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>122.8909290173428</v>
       </c>
       <c r="D32" t="n">
-        <v>13.86041990335889</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>112.0459792443681</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>122.1364377715742</v>
       </c>
       <c r="I34" t="n">
         <v>139.0783256288916</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>115.8810124358159</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.22078337942932</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>148.4095866117929</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25241,19 +25241,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>120.4210546291177</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>45.0073911886544</v>
       </c>
       <c r="H36" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>55.85785047759349</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>211.7472155662992</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.137525042126356</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>183.963549469284</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,22 +25472,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>138.3953221860468</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>130.2373021845468</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>67.03858805571426</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>157.3867970498209</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.1443810548377</v>
       </c>
       <c r="T40" t="n">
-        <v>211.9808801013541</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25681,22 +25681,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>50.97212115990629</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>257.7393778172597</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>130.5311903113548</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S42" t="n">
-        <v>70.43910215024499</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>135.3959620179722</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
         <v>139.0783256288916</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25842,13 +25842,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>17.54749091340801</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>210.2124457189394</v>
+        <v>98.74872493911175</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -25927,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -25946,13 +25946,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>31.21653193536827</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>57.98884467712213</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.4465608509556</v>
@@ -26070,7 +26070,7 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
@@ -26079,7 +26079,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>95.03019395184305</v>
+        <v>199.7011422698225</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>577163.570987029</v>
+        <v>577163.5709870289</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>577163.570987029</v>
+        <v>577163.5709870289</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>577163.5709870289</v>
+        <v>577163.570987029</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>577163.570987029</v>
+        <v>577163.5709870289</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>577163.5709870288</v>
+        <v>577163.5709870289</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
+        <v>356907.7346816905</v>
+      </c>
+      <c r="F2" t="n">
         <v>356907.7346816903</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>356907.7346816906</v>
+      </c>
+      <c r="H2" t="n">
         <v>356907.7346816905</v>
-      </c>
-      <c r="G2" t="n">
-        <v>356907.7346816905</v>
-      </c>
-      <c r="H2" t="n">
-        <v>356907.7346816903</v>
       </c>
       <c r="I2" t="n">
         <v>356907.7346816905</v>
@@ -26340,19 +26340,19 @@
         <v>356907.7346816905</v>
       </c>
       <c r="K2" t="n">
-        <v>356907.7346816904</v>
+        <v>356907.7346816906</v>
       </c>
       <c r="L2" t="n">
         <v>356907.7346816905</v>
       </c>
       <c r="M2" t="n">
-        <v>356907.7346816904</v>
+        <v>356907.7346816905</v>
       </c>
       <c r="N2" t="n">
         <v>356907.7346816905</v>
       </c>
       <c r="O2" t="n">
-        <v>356907.7346816904</v>
+        <v>356907.7346816903</v>
       </c>
       <c r="P2" t="n">
         <v>356907.7346816905</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789526</v>
+        <v>345612.3427789527</v>
       </c>
       <c r="F3" t="n">
-        <v>8.522183634340765e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007599</v>
+        <v>86018.53382007603</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137659.8556592801</v>
+        <v>137659.8556592802</v>
       </c>
       <c r="C6" t="n">
-        <v>218429.2871908279</v>
+        <v>218429.2871908277</v>
       </c>
       <c r="D6" t="n">
         <v>218429.2871908277</v>
       </c>
       <c r="E6" t="n">
-        <v>-40126.43710239598</v>
+        <v>-47433.67636079224</v>
       </c>
       <c r="F6" t="n">
-        <v>305485.9056765567</v>
+        <v>298178.6664181603</v>
       </c>
       <c r="G6" t="n">
-        <v>305485.9056765568</v>
+        <v>298178.6664181606</v>
       </c>
       <c r="H6" t="n">
-        <v>305485.9056765566</v>
+        <v>298178.6664181606</v>
       </c>
       <c r="I6" t="n">
-        <v>305485.9056765568</v>
+        <v>298178.6664181604</v>
       </c>
       <c r="J6" t="n">
-        <v>242425.9630774505</v>
+        <v>235118.7238190542</v>
       </c>
       <c r="K6" t="n">
-        <v>305485.9056765567</v>
+        <v>298178.6664181605</v>
       </c>
       <c r="L6" t="n">
-        <v>305485.9056765568</v>
+        <v>298178.6664181605</v>
       </c>
       <c r="M6" t="n">
-        <v>219467.3718564807</v>
+        <v>212160.1325980845</v>
       </c>
       <c r="N6" t="n">
-        <v>305485.9056765568</v>
+        <v>298178.6664181604</v>
       </c>
       <c r="O6" t="n">
-        <v>305485.9056765567</v>
+        <v>298178.6664181603</v>
       </c>
       <c r="P6" t="n">
-        <v>305485.9056765568</v>
+        <v>298178.6664181605</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26798,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="F4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="G4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="H4" t="n">
         <v>586.187455520554</v>
@@ -26813,7 +26813,7 @@
         <v>586.187455520554</v>
       </c>
       <c r="J4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="K4" t="n">
         <v>586.1874555205541</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
-        <v>1.078150109664906e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>207.6911821043309</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27423,25 +27423,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>271.0401150216383</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>21.08647536425173</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27511,10 +27511,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>68.23607968221197</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63594515755861</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>189.8484676766033</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27757,10 +27757,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>61.52742449360861</v>
+        <v>11.52642163877024</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>40.41943799383367</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>339.4843154475679</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="W9" t="n">
-        <v>55.26286608486788</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28070,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31758,43 +31758,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454668</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988239</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618698</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823738</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545558</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32232,25 +32232,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M17" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
         <v>174.5298045144673</v>
@@ -32259,16 +32259,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S17" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L18" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
         <v>164.5381207449218</v>
@@ -32335,7 +32335,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R18" t="n">
         <v>40.31853275515171</v>
@@ -32344,10 +32344,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H19" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K19" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N19" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T19" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34786,13 +34786,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828882</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>488.1091505729034</v>
+        <v>424.5361405300196</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>189.2088021329884</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>156.7227248725411</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
@@ -35740,13 +35740,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>342.1971228826985</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
@@ -35892,13 +35892,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N17" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828882</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
@@ -36059,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M21" t="n">
-        <v>332.1534122685985</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
         <v>516.8936174628016</v>
@@ -36445,10 +36445,10 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M24" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K27" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
-        <v>217.3283173608307</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M27" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>14.9231214167495</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651352</v>
@@ -36922,7 +36922,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>516.8936174628016</v>
+        <v>513.926199908207</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
@@ -36931,7 +36931,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>14.9231214167495</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651352</v>
@@ -37159,7 +37159,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>516.8936174628016</v>
+        <v>513.926199908207</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37168,7 +37168,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M36" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
-        <v>373.2840556651352</v>
+        <v>370.3166381105401</v>
       </c>
       <c r="M39" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
@@ -37642,7 +37642,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503788</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M42" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.0609347978879</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093428</v>
@@ -38107,13 +38107,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584966</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P45" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
         <v>152.98832074971</v>
